--- a/data/trans_camb/P2404-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P2404-Provincia-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2404-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P2404-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -606,7 +606,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,82</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -626,7 +626,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,1</t>
         </is>
       </c>
     </row>
@@ -644,27 +644,27 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
+          <t>-1,35; 5,82</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-4,89; 0,53</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,14; 2,14</t>
         </is>
       </c>
     </row>
@@ -682,27 +682,27 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>63,54%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>-66,55%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,24%</t>
         </is>
       </c>
     </row>
@@ -720,27 +720,27 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>-34,42; 370,88</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 183,1</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,31; 116,96</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,5</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,75</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,19</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,38; 0,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,13; 2,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,37; 1,5</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,57; 0,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,07; 0,37</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,48; 1,01</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-49,93%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,8%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,84%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,74%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-36,03%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,03%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,23; 27,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,52; 119,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,41; 269,97</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-80,53; 232,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,77; 28,67</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,58; 69,84</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,82</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,37</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,25</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,54; -0,97</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,39; 1,85</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,56; 1,16</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,85; 0,53</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,74; -0,44</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,63; 1,04</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-82,81%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,38%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,33%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,37%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-75,9%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,89%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>-100,0; -19,97</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>-71,08; 104,94</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="F15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -18,23</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,8; 104,7</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,89</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,83</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,61</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,13; 5,38</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,49; 3,94</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,96; 0,3</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,97; 1,77</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,44; 2,49</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,94; 2,28</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>115,79%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>54,53%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-59,89%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,19%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>53,21%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,74%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,68; 400,52</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,54; 274,56</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 116,42</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,01; 441,02</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,9; 221,78</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,92; 175,78</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,43</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,43</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,99</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,77; 2,35</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,68; 0,9</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,99; -0,44</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,06; -0,44</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,05; 0,61</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,58; -0,06</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,21%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-54,43%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-44,32%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-81,79%</t>
         </is>
       </c>
     </row>
@@ -1359,7 +1359,7 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 193,78</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -1381,32 +1381,32 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,68</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,38</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,82; 0,66</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,41; 3,4</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,22; 0,0</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,02; 0,63</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,44; 0,13</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,67; 1,62</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-53,45%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>159,55%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-52,9%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-76,42%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>53,84%</t>
         </is>
       </c>
     </row>
@@ -1520,7 +1520,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,13; 654,35</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1537,32 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,25</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,03</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,75; 4,25</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,16; 2,53</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,14; 1,79</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,44; 2,07</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,62; 2,44</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,27; 1,82</t>
         </is>
       </c>
     </row>
@@ -1613,32 +1613,32 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>247,48%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>113,15%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>324,82%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>229,49%</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>30,19; 940,09</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-31,0; 596,29</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="F31" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>63,18; 1257,11</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,5; 928,0</t>
         </is>
       </c>
     </row>
@@ -1693,32 +1693,32 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,21</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,99</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,78</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,05</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,89</t>
         </is>
       </c>
     </row>
@@ -1731,32 +1731,32 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,8; 0,32</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,66; 0,59</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,79; -0,29</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,67; -0,16</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,93; -0,21</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,75; 0,0</t>
         </is>
       </c>
     </row>
@@ -1769,32 +1769,32 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-42,87%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-35,1%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-88,41%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-76,95%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-55,5%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-46,84%</t>
         </is>
       </c>
     </row>
@@ -1807,32 +1807,32 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,89; 27,2</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,01; 39,4</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 5,48</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 20,74</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-80,48; -13,01</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,53; 4,6</t>
         </is>
       </c>
     </row>
@@ -1849,32 +1849,32 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,01</t>
         </is>
       </c>
     </row>
@@ -1887,32 +1887,32 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,59; 0,9</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,54; 1,02</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,91; -0,09</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,73; 0,15</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,59; 0,24</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,45; 0,41</t>
         </is>
       </c>
     </row>
@@ -1925,32 +1925,32 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,55%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,46%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-50,74%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,25%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,25%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,82%</t>
         </is>
       </c>
     </row>
@@ -1963,32 +1963,32 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,99; 47,33</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,45; 53,91</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,48; -9,29</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,26; 23,44</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,24; 17,88</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,92; 30,12</t>
         </is>
       </c>
     </row>
